--- a/thesis_bibilo.xlsx
+++ b/thesis_bibilo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <r>
       <t>O'Rawe, J., Jiang, T., Sun, G., Wu, Y., Wang, W., Hu, J., ... &amp; Wei, Z. (2013). Low concordance of multiple variant-calling pipelines: practical implications for exome and genome sequencing. </t>
@@ -420,6 +420,284 @@
       </rPr>
       <t>, 113-141.</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>Rehm, H. L. (2017). Evolving health care through personal genomics. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Nature Reviews Genetics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Angrist, M. (2016). Personal genomics: Where are we now?. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Applied &amp; translational genomics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 1.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Escalona, M., Rocha, S., &amp; Posada, D. (2016). A comparison of tools for the simulation of genomic next-generation sequencing data. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Nature Reviews Genetics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(8), 459-469.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Schirmer, M., D’Amore, R., Ijaz, U. Z., Hall, N., &amp; Quince, C. (2016). Illumina error profiles: resolving fine-scale variation in metagenomic sequencing data. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BMC bioinformatics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 125.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LeCun, Y., Bengio, Y., &amp; Hinton, G. (2015). Deep learning. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Nature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>521</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(7553), 436-444.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Kingma, D., &amp; Ba, J. (2014). Adam: A method for stochastic optimization. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>arXiv preprint arXiv:1412.6980</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sutskever, I., Martens, J., Dahl, G. E., &amp; Hinton, G. E. (2013). On the importance of initialization and momentum in deep learning. ICML (3), 28, 1139-1147.</t>
+  </si>
+  <si>
+    <r>
+      <t>Maas, A. L., Hannun, A. Y., &amp; Ng, A. Y. (2013, June). Rectifier nonlinearities improve neural network acoustic models. In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Proc. ICML</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (Vol. 30, No. 1).</t>
+    </r>
+  </si>
+  <si>
+    <t>Srivastava, N., Hinton, G. E., Krizhevsky, A., Sutskever, I., &amp; Salakhutdinov, R. (2014). Dropout: a simple way to prevent neural networks from overfitting. Journal of Machine Learning Research, 15(1), 1929-1958.</t>
+  </si>
+  <si>
+    <r>
+      <t>Ruder, S. (2016). An overview of gradient descent optimization algorithms. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>arXiv preprint arXiv:1609.04747</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tieleman, T. and Hinton, G. Lecture 6.5 - RMSProp, COURSERA: Neural Networks for Machine Learning.
+Technical report, 2012</t>
   </si>
 </sst>
 </file>
@@ -786,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -938,6 +1216,61 @@
         <v>22</v>
       </c>
     </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/thesis_bibilo.xlsx
+++ b/thesis_bibilo.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11148" windowHeight="3468"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11148" windowHeight="3468" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
   <si>
     <r>
       <t>O'Rawe, J., Jiang, T., Sun, G., Wu, Y., Wang, W., Hu, J., ... &amp; Wei, Z. (2013). Low concordance of multiple variant-calling pipelines: practical implications for exome and genome sequencing. </t>
@@ -698,6 +700,100 @@
   <si>
     <t>Tieleman, T. and Hinton, G. Lecture 6.5 - RMSProp, COURSERA: Neural Networks for Machine Learning.
 Technical report, 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexej Abyzov, Shantao Li, Daniel Rhee Kim, Marghoob Mohiyuddin, Adrian M. Sttz, Nicholas F. Parrish, Xinmeng Jasmine Mu, Wyatt Clark, Ken Chen, Matthew Hurles, Jan O. Korbel, Hugo Y. K. Lam, Charles Lee and Mark B. Gerstein
+Analysis of deletion breakpoints from 1,092 humans reveals details of mutation mechanisms Nature CommunicationsBioinformatics published June 1, 2015 </t>
+  </si>
+  <si>
+    <t>Angrist, M. (2016). Personal genomics: Where are we now?.ÿApplied &amp; translational genomics,ÿ8, 1.</t>
+  </si>
+  <si>
+    <t>Chawla, N. V. (2005). Data mining for imbalanced datasets: An overview. InÿData mining and knowledge discovery handbookÿ(pp. 853-867). Springer US.</t>
+  </si>
+  <si>
+    <t>Chawla, N. V., Bowyer, K. W., Hall, L. O., &amp; Kegelmeyer, W. P. (2002). SMOTE: synthetic minority over-sampling technique.ÿJournal of artificial intelligence research,ÿ16, 321-357.</t>
+  </si>
+  <si>
+    <t>Cornish, A., &amp; Guda, C. (2015). A comparison of variant calling pipelines using genome in a bottle as a reference.ÿBioMed research international,ÿ2015.</t>
+  </si>
+  <si>
+    <t>Danecek, P., Auton, A., Abecasis, G., Albers, C. A., Banks, E., DePristo, M. A., ... &amp; McVean, G. (2011). The variant call format and VCFtools.ÿBioinformatics,ÿ27(15), 2156-2158.</t>
+  </si>
+  <si>
+    <t>Escalona, M., Rocha, S., &amp; Posada, D. (2016). A comparison of tools for the simulation of genomic next-generation sequencing data.ÿNature Reviews Genetics,ÿ17(8), 459-469.</t>
+  </si>
+  <si>
+    <t>Garrison, E., &amp; Marth, G. (2012). Haplotype-based variant detection from short-read sequencing.ÿarXiv preprint arXiv:1207.3907.</t>
+  </si>
+  <si>
+    <t>G‚zsi, A., Bolg r, B., Marx, P., Sarkozy, P., Szalai, C., &amp; Antal, P. (2015). VariantMetaCaller: automated fusion of variant calling pipelines for quantitative, precision-based filtering. BMC genomics, 16(1), 1.</t>
+  </si>
+  <si>
+    <t>Hwang, S., Kim, E., Lee, I., &amp; Marcotte, E. M. (2015). Systematic comparison of variant calling pipelines using gold standard personal exome variants.ÿScientific reports,ÿ5, 17875.</t>
+  </si>
+  <si>
+    <t>Jolliffe, I. (2002).ÿPrincipal component analysis. John Wiley &amp; Sons, Ltd.</t>
+  </si>
+  <si>
+    <t>Kingma, D., &amp; Ba, J. (2014). Adam: A method for stochastic optimization.ÿarXiv preprint arXiv:1412.6980.</t>
+  </si>
+  <si>
+    <t>LeCun, Y., Bengio, Y., &amp; Hinton, G. (2015). Deep learning.ÿNature,ÿ521(7553), 436-444.</t>
+  </si>
+  <si>
+    <t>Linderman, M. D., Brandt, T., Edelmann, L., Jabado, O., Kasai, Y., Kornreich, R., ... &amp; Schadt, E. E. (2014). Analytical validation of whole exome and whole genome sequencing for clinical applications.ÿBMC medical genomics,ÿ7(1), 20.</t>
+  </si>
+  <si>
+    <t>Liu, X., Han, S., Wang, Z., Gelernter, J., &amp; Yang, B. Z. (2013). Variant callers for next-generation sequencing data: a comparison study.ÿPloS one,ÿ8(9), e75619.</t>
+  </si>
+  <si>
+    <t>Liu, Y., Stolcke, A., Shriberg, E., &amp; Harper, M. (2005, June). Using conditional random fields for sentence boundary detection in speech. InÿProceedings of the 43rd Annual Meeting on Association for Computational Linguisticsÿ(pp. 451-458). Association for Computational Linguistics.</t>
+  </si>
+  <si>
+    <t>L¢pez, V., Fern ndez, A., Garc¡a, S., Palade, V., &amp; Herrera, F. (2013). An insight into classification with imbalanced data: Empirical results and current trends on using data intrinsic characteristics.ÿInformation Sciences,ÿ250, 113-141.</t>
+  </si>
+  <si>
+    <t>Maas, A. L., Hannun, A. Y., &amp; Ng, A. Y. (2013, June). Rectifier nonlinearities improve neural network acoustic models. InÿProc. ICMLÿ(Vol. 30, No. 1).</t>
+  </si>
+  <si>
+    <t>McKenna, A., Hanna, M., Banks, E., Sivachenko, A., Cibulskis, K., Kernytsky, A., ... &amp; DePristo, M. A. (2010). The Genome Analysis Toolkit: a MapReduce framework for analyzing next-generation DNA sequencing data.ÿGenome research,ÿ20(9), 1297-1303.</t>
+  </si>
+  <si>
+    <t>O'Rawe, J., Jiang, T., Sun, G., Wu, Y., Wang, W., Hu, J., ... &amp; Wei, Z. (2013). Low concordance of multiple variant-calling pipelines: practical implications for exome and genome sequencing.ÿGenome medicine,ÿ5(3), 1.</t>
+  </si>
+  <si>
+    <t>Pearson, K. (1901). Principal components analysis.ÿThe London, Edinburgh and Dublin Philosophical Magazine and Journal,ÿ6(2), 566.</t>
+  </si>
+  <si>
+    <t>Rehm, H. L. (2017). Evolving health care through personal genomics.ÿNature Reviews Genetics.</t>
+  </si>
+  <si>
+    <t>Ruder, S. (2016). An overview of gradient descent optimization algorithms.ÿarXiv preprint arXiv:1609.04747.</t>
+  </si>
+  <si>
+    <t>Sandmann, S., de Graaf, A. O., Karimi, M., van der Reijden, B. A., Hellstr”m-Lindberg, E., Jansen, J. H., &amp; Dugas, M. (2017). Evaluating Variant Calling Tools for Non-Matched Next-Generation Sequencing Data.ÿScientific Reports,ÿ7.</t>
+  </si>
+  <si>
+    <t>Schirmer, M., D?Amore, R., Ijaz, U. Z., Hall, N., &amp; Quince, C. (2016). Illumina error profiles: resolving fine-scale variation in metagenomic sequencing data.ÿBMC bioinformatics,ÿ17(1), 125.</t>
+  </si>
+  <si>
+    <t>Tieleman, T. and Hinton, G. Lecture 6.5 - RMSProp, COURSERA: Neural Networks for Machine Learning. Technical report, 2012</t>
+  </si>
+  <si>
+    <t>Van Der Maaten, L., Postma, E., &amp; Van den Herik, J. (2009). Dimensionality reduction: a comparative.ÿJ Mach Learn Res,ÿ10, 66-71.</t>
+  </si>
+  <si>
+    <t>Xie, M., Lu, C., Wang, J., McLellan, M. D., Johnson, K. J., Wendl, M. C., ... &amp; Ozenberger, B. A. (2014). Age-related mutations associated with clonal hematopoietic expansion and malignancies.ÿNature medicine,ÿ20(12), 1472-1478.</t>
+  </si>
+  <si>
+    <t>Yan, Y., Chen, M., Shyu, M. L., &amp; Chen, S. C. (2015, December). Deep learning for imbalanced multimedia data classification. InÿMultimedia (ISM), 2015 IEEE International Symposium onÿ(pp. 483-488). IEEE.</t>
+  </si>
+  <si>
+    <t>Zook, J. M., Chapman, B., Wang, J., Mittelman, D., Hofmann, O., Hide, W., &amp; Salit, M. (2014). Integrating human sequence data sets provides a resource of benchmark SNP and indel genotype calls.ÿNature biotechnology,ÿ32(3), 246-251.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -746,10 +842,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1066,9 +1165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1275,4 +1372,248 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>